--- a/Code/Results/Cases/Case_2_227/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_227/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.451120116010458</v>
+        <v>0.8619958419062073</v>
       </c>
       <c r="C2">
-        <v>0.2350199135639457</v>
+        <v>0.105832384099827</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.4599074552353173</v>
+        <v>0.2920739395562038</v>
       </c>
       <c r="F2">
-        <v>2.877890108020722</v>
+        <v>3.258431016905007</v>
       </c>
       <c r="G2">
-        <v>0.0008260143895153519</v>
+        <v>0.002532622074875974</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1030761390311596</v>
+        <v>0.1409196760621612</v>
       </c>
       <c r="K2">
-        <v>1.591330588722883</v>
+        <v>0.8902327989225682</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.504577916580033</v>
+        <v>2.531580154205415</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.26414725721952</v>
+        <v>0.8165072507206901</v>
       </c>
       <c r="C3">
-        <v>0.202968158735203</v>
+        <v>0.09785692682173419</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.3976270934338686</v>
+        <v>0.2788173909058145</v>
       </c>
       <c r="F3">
-        <v>2.608633257893899</v>
+        <v>3.210343874223824</v>
       </c>
       <c r="G3">
-        <v>0.0008329977086508497</v>
+        <v>0.002536826843493044</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0979332960754391</v>
+        <v>0.14025803836698</v>
       </c>
       <c r="K3">
-        <v>1.383238654061955</v>
+        <v>0.8393175211226946</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.538114434440033</v>
+        <v>2.545131091000101</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.151289467744249</v>
+        <v>0.7890995301609962</v>
       </c>
       <c r="C4">
-        <v>0.1836316320679146</v>
+        <v>0.09302281390478129</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3599409007940935</v>
+        <v>0.2708622830077374</v>
       </c>
       <c r="F4">
-        <v>2.448631168227649</v>
+        <v>3.182631357288543</v>
       </c>
       <c r="G4">
-        <v>0.0008373997081183369</v>
+        <v>0.002539542615738815</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09498662983077111</v>
+        <v>0.1399211948380028</v>
       </c>
       <c r="K4">
-        <v>1.257643291055075</v>
+        <v>0.8085969575795957</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.560699321407554</v>
+        <v>2.554173099980325</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.105729802971467</v>
+        <v>0.7780616186934708</v>
       </c>
       <c r="C5">
-        <v>0.1758265757343622</v>
+        <v>0.091068531802037</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.3447039493458206</v>
+        <v>0.2676667368863903</v>
       </c>
       <c r="F5">
-        <v>2.384642886139986</v>
+        <v>3.171792867123202</v>
       </c>
       <c r="G5">
-        <v>0.0008392234643512771</v>
+        <v>0.002540683130291343</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.09383473364028561</v>
+        <v>0.1398013226537103</v>
       </c>
       <c r="K5">
-        <v>1.206941886573134</v>
+        <v>0.7962136996333413</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.570379786736801</v>
+        <v>2.558038858289763</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.098189058818917</v>
+        <v>0.7762366793868125</v>
       </c>
       <c r="C6">
-        <v>0.174534743967854</v>
+        <v>0.09074496623696859</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3421806183997518</v>
+        <v>0.2671389061501372</v>
       </c>
       <c r="F6">
-        <v>2.374087535769533</v>
+        <v>3.17002056077439</v>
       </c>
       <c r="G6">
-        <v>0.0008395281370628967</v>
+        <v>0.002540874557390055</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.09364629925303092</v>
+        <v>0.1397824668560474</v>
       </c>
       <c r="K6">
-        <v>1.198550071421579</v>
+        <v>0.7941656437500626</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.572015352022042</v>
+        <v>2.558691688666443</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.150673363493468</v>
+        <v>0.7889501393365776</v>
       </c>
       <c r="C7">
-        <v>0.1835260824219063</v>
+        <v>0.09299639456564535</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.3597349459826518</v>
+        <v>0.2708189998007882</v>
       </c>
       <c r="F7">
-        <v>2.447763442597406</v>
+        <v>3.182483346823773</v>
       </c>
       <c r="G7">
-        <v>0.0008374241813111443</v>
+        <v>0.002539557860171295</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09497090226989258</v>
+        <v>0.1399195078465283</v>
       </c>
       <c r="K7">
-        <v>1.256957656533132</v>
+        <v>0.8084294042617444</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.560827975161331</v>
+        <v>2.554224502375668</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.38621190091348</v>
+        <v>0.8462026684386217</v>
       </c>
       <c r="C8">
-        <v>0.2238899054784582</v>
+        <v>0.1030693109198495</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.4383062938083313</v>
+        <v>0.2874646930246527</v>
       </c>
       <c r="F8">
-        <v>2.783867466026095</v>
+        <v>3.241473400947797</v>
       </c>
       <c r="G8">
-        <v>0.0008283992740692628</v>
+        <v>0.002534044129823617</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1012564596350174</v>
+        <v>0.1406771028086027</v>
       </c>
       <c r="K8">
-        <v>1.519087311472816</v>
+        <v>0.8725644310184748</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.515712364186214</v>
+        <v>2.536102487845156</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.866417303069255</v>
+        <v>0.9626462717680795</v>
       </c>
       <c r="C9">
-        <v>0.3063474310464187</v>
+        <v>0.1233286924992285</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.59772644834392</v>
+        <v>0.3215799467233325</v>
       </c>
       <c r="F9">
-        <v>3.491394913912643</v>
+        <v>3.37161118914176</v>
       </c>
       <c r="G9">
-        <v>0.000811549214761812</v>
+        <v>0.002524290002663905</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.115464702757059</v>
+        <v>0.1427163068947621</v>
       </c>
       <c r="K9">
-        <v>2.053701175952199</v>
+        <v>1.00266433788974</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.444257884859496</v>
+        <v>2.506309850059296</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.234862363989635</v>
+        <v>1.050786989470794</v>
       </c>
       <c r="C10">
-        <v>0.3698463564106476</v>
+        <v>0.1385343593713912</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.7195845626076647</v>
+        <v>0.3475587076929116</v>
       </c>
       <c r="F10">
-        <v>4.050354030872711</v>
+        <v>3.476152258189529</v>
       </c>
       <c r="G10">
-        <v>0.0007995964271694108</v>
+        <v>0.002517761549205622</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.127373081196879</v>
+        <v>0.1445563052047518</v>
       </c>
       <c r="K10">
-        <v>2.464190335620543</v>
+        <v>1.100947357154951</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.403988921953257</v>
+        <v>2.487948807996432</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.40700686325664</v>
+        <v>1.091457593848475</v>
       </c>
       <c r="C11">
-        <v>0.3995982658854302</v>
+        <v>0.1455243310665253</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.7764270358954235</v>
+        <v>0.3595794031715656</v>
       </c>
       <c r="F11">
-        <v>4.31558918697263</v>
+        <v>3.525675502918887</v>
       </c>
       <c r="G11">
-        <v>0.0007942289411001911</v>
+        <v>0.002514928552698257</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1331918747558234</v>
+        <v>0.1454685529526074</v>
       </c>
       <c r="K11">
-        <v>2.656089182730625</v>
+        <v>1.146258215514365</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.388798345354189</v>
+        <v>2.480367512488641</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.47295301632056</v>
+        <v>1.106941846726215</v>
       </c>
       <c r="C12">
-        <v>0.4110111145341477</v>
+        <v>0.14818192100293</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.7981905176330457</v>
+        <v>0.3641607409251151</v>
       </c>
       <c r="F12">
-        <v>4.417836622666044</v>
+        <v>3.544713369162224</v>
       </c>
       <c r="G12">
-        <v>0.0007922043507490141</v>
+        <v>0.002513875328645407</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1354609135488474</v>
+        <v>0.1458248879365343</v>
       </c>
       <c r="K12">
-        <v>2.729623230361028</v>
+        <v>1.163503609565538</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.383541359190147</v>
+        <v>2.477608059067734</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.458714755184815</v>
+        <v>1.10360332837331</v>
       </c>
       <c r="C13">
-        <v>0.4085462610120203</v>
+        <v>0.1476090856105259</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.7934921344231185</v>
+        <v>0.3631727588624187</v>
       </c>
       <c r="F13">
-        <v>4.395731357073146</v>
+        <v>3.540600544964519</v>
       </c>
       <c r="G13">
-        <v>0.0007926400643730924</v>
+        <v>0.002514101290544868</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1349691830362403</v>
+        <v>0.1457476595224279</v>
       </c>
       <c r="K13">
-        <v>2.713745710939634</v>
+        <v>1.159785618291636</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.384650727742454</v>
+        <v>2.478197393062644</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.412416431445251</v>
+        <v>1.092729822737851</v>
       </c>
       <c r="C14">
-        <v>0.4005341372813973</v>
+        <v>0.1457427584051914</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.778212529015093</v>
+        <v>0.3599557230077437</v>
       </c>
       <c r="F14">
-        <v>4.323963463148061</v>
+        <v>3.527236048586133</v>
       </c>
       <c r="G14">
-        <v>0.0007940622301910093</v>
+        <v>0.002514841511665747</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1333771870675236</v>
+        <v>0.1454976502615253</v>
       </c>
       <c r="K14">
-        <v>2.662120754676636</v>
+        <v>1.147675253840788</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.388355641110309</v>
+        <v>2.480138254619661</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.38415955837479</v>
+        <v>1.086080333815858</v>
       </c>
       <c r="C15">
-        <v>0.3956462498414339</v>
+        <v>0.1446009696152544</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.7688855303534723</v>
+        <v>0.3579890252313049</v>
       </c>
       <c r="F15">
-        <v>4.280246481244376</v>
+        <v>3.519087006505117</v>
       </c>
       <c r="G15">
-        <v>0.0007949343182727231</v>
+        <v>0.002515297463947581</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1324108343389412</v>
+        <v>0.1453459322020692</v>
       </c>
       <c r="K15">
-        <v>2.630615688541013</v>
+        <v>1.140268676313354</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.390690965795329</v>
+        <v>2.481341613793603</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.223712420390598</v>
+        <v>1.04814068181031</v>
       </c>
       <c r="C16">
-        <v>0.367921236497267</v>
+        <v>0.1380790280396411</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.7159010851526943</v>
+        <v>0.3467772249262993</v>
       </c>
       <c r="F16">
-        <v>4.033260089360965</v>
+        <v>3.472955517883719</v>
       </c>
       <c r="G16">
-        <v>0.00079994843817488</v>
+        <v>0.002517949436334909</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.12700153892429</v>
+        <v>0.1444982072779979</v>
       </c>
       <c r="K16">
-        <v>2.451763445583197</v>
+        <v>1.097998345230565</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.405048373359293</v>
+        <v>2.488459826653411</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.126517148395408</v>
+        <v>1.025013545088996</v>
       </c>
       <c r="C17">
-        <v>0.3511493851951286</v>
+        <v>0.1340968004500382</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.6837817746431085</v>
+        <v>0.3399512346209406</v>
       </c>
       <c r="F17">
-        <v>3.884706108968118</v>
+        <v>3.44516029329327</v>
       </c>
       <c r="G17">
-        <v>0.0008030409260083406</v>
+        <v>0.00251961130581659</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1237912532199417</v>
+        <v>0.1439974711731011</v>
       </c>
       <c r="K17">
-        <v>2.343449579597348</v>
+        <v>1.072221378068946</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.414688030944291</v>
+        <v>2.493024516329797</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.071032980479856</v>
+        <v>1.011765514092986</v>
       </c>
       <c r="C18">
-        <v>0.3415827017108768</v>
+        <v>0.1318131742337982</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.6654377800016817</v>
+        <v>0.336044184603125</v>
       </c>
       <c r="F18">
-        <v>3.800278091001786</v>
+        <v>3.429358257948877</v>
       </c>
       <c r="G18">
-        <v>0.0008048263606645628</v>
+        <v>0.002520580054358943</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1219820610129005</v>
+        <v>0.1437165371691975</v>
       </c>
       <c r="K18">
-        <v>2.281628287615405</v>
+        <v>1.057451715817081</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.420523892087587</v>
+        <v>2.495722566096745</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.052316086530823</v>
+        <v>1.007289232749429</v>
       </c>
       <c r="C19">
-        <v>0.3383567098694584</v>
+        <v>0.1310411484058136</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.6592481562039012</v>
+        <v>0.3347245955847171</v>
       </c>
       <c r="F19">
-        <v>3.771860140232945</v>
+        <v>3.424039692078594</v>
       </c>
       <c r="G19">
-        <v>0.0008054320918221482</v>
+        <v>0.002520910272309624</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1213756789916545</v>
+        <v>0.1436226309757203</v>
       </c>
       <c r="K19">
-        <v>2.260775230311822</v>
+        <v>1.052460657224714</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.422548560876862</v>
+        <v>2.496648526184288</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.136819553709074</v>
+        <v>1.027469866958711</v>
       </c>
       <c r="C20">
-        <v>0.3529263431854872</v>
+        <v>0.1345200056727265</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.6871872108663695</v>
+        <v>0.3406758969312875</v>
       </c>
       <c r="F20">
-        <v>3.900413157146147</v>
+        <v>3.448099979462199</v>
       </c>
       <c r="G20">
-        <v>0.0008027110445582821</v>
+        <v>0.002519433064038676</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1241290816397722</v>
+        <v>0.1440500425294502</v>
       </c>
       <c r="K20">
-        <v>2.354929459497185</v>
+        <v>1.074959520888825</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.413631403284441</v>
+        <v>2.492531083862076</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.425993867645388</v>
+        <v>1.095921373455269</v>
       </c>
       <c r="C21">
-        <v>0.4028833291269507</v>
+        <v>0.1462906538651509</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.7826937381122718</v>
+        <v>0.3608998459858412</v>
       </c>
       <c r="F21">
-        <v>4.344992351697471</v>
+        <v>3.531153791012684</v>
       </c>
       <c r="G21">
-        <v>0.0007936443075104354</v>
+        <v>0.002514623560392905</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.133842947490443</v>
+        <v>0.1455707880250472</v>
       </c>
       <c r="K21">
-        <v>2.677259691789686</v>
+        <v>1.151229990644481</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.387253583174456</v>
+        <v>2.479565148514283</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.619467590013414</v>
+        <v>1.141143453836605</v>
       </c>
       <c r="C22">
-        <v>0.4363989753079522</v>
+        <v>0.1540455458425356</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.8465229295182297</v>
+        <v>0.3742885997148733</v>
       </c>
       <c r="F22">
-        <v>4.646222240337522</v>
+        <v>3.587093253144246</v>
       </c>
       <c r="G22">
-        <v>0.000787763915149783</v>
+        <v>0.002511594294185286</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.140578192156795</v>
+        <v>0.146628171260403</v>
       </c>
       <c r="K22">
-        <v>2.893038028971489</v>
+        <v>1.201585481545862</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.372926859362636</v>
+        <v>2.471740837877746</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.515758390395717</v>
+        <v>1.116963026609881</v>
       </c>
       <c r="C23">
-        <v>0.4184238232002144</v>
+        <v>0.1499008772069317</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.8123139406120856</v>
+        <v>0.3671270362409444</v>
       </c>
       <c r="F23">
-        <v>4.484389167272695</v>
+        <v>3.557084962903531</v>
       </c>
       <c r="G23">
-        <v>0.0007908990075434806</v>
+        <v>0.002513200672483053</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1369452310915236</v>
+        <v>0.1460579935377027</v>
       </c>
       <c r="K23">
-        <v>2.777360083766155</v>
+        <v>1.174663070533569</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.380290212265891</v>
+        <v>2.475857201825136</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.132160614776012</v>
+        <v>1.026359214155093</v>
       </c>
       <c r="C24">
-        <v>0.352122746381923</v>
+        <v>0.1343286565094388</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.6856472363465969</v>
+        <v>0.3403482232227191</v>
       </c>
       <c r="F24">
-        <v>3.89330897271401</v>
+        <v>3.446770393605306</v>
       </c>
       <c r="G24">
-        <v>0.0008028601602534848</v>
+        <v>0.002519513605508228</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1239762364764516</v>
+        <v>0.1440262533900381</v>
       </c>
       <c r="K24">
-        <v>2.349738013924167</v>
+        <v>1.073721451267176</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.414108192610456</v>
+        <v>2.492753934985728</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.734114217618441</v>
+        <v>0.9306938311340502</v>
       </c>
       <c r="C25">
-        <v>0.283599459653999</v>
+        <v>0.1177925071876018</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.553884652515265</v>
+        <v>0.3121914986108578</v>
       </c>
       <c r="F25">
-        <v>3.293874569098335</v>
+        <v>3.334845842189537</v>
       </c>
       <c r="G25">
-        <v>0.0008160255997239128</v>
+        <v>0.002526816208347819</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1113883314729804</v>
+        <v>0.1421049412351039</v>
       </c>
       <c r="K25">
-        <v>1.906370299168344</v>
+        <v>0.9669992080443421</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.461587106512155</v>
+        <v>2.513751934095879</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_227/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_227/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8619958419062073</v>
+        <v>1.451120116010628</v>
       </c>
       <c r="C2">
-        <v>0.105832384099827</v>
+        <v>0.2350199135639741</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2920739395562038</v>
+        <v>0.4599074552352604</v>
       </c>
       <c r="F2">
-        <v>3.258431016905007</v>
+        <v>2.877890108020722</v>
       </c>
       <c r="G2">
-        <v>0.002532622074875974</v>
+        <v>0.0008260143895880869</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1409196760621612</v>
+        <v>0.1030761390311667</v>
       </c>
       <c r="K2">
-        <v>0.8902327989225682</v>
+        <v>1.591330588722883</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.531580154205415</v>
+        <v>1.504577916580047</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8165072507206901</v>
+        <v>1.264147257219605</v>
       </c>
       <c r="C3">
-        <v>0.09785692682173419</v>
+        <v>0.2029681587350041</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2788173909058145</v>
+        <v>0.3976270934338686</v>
       </c>
       <c r="F3">
-        <v>3.210343874223824</v>
+        <v>2.608633257893899</v>
       </c>
       <c r="G3">
-        <v>0.002536826843493044</v>
+        <v>0.0008329977086806709</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.14025803836698</v>
+        <v>0.09793329607550305</v>
       </c>
       <c r="K3">
-        <v>0.8393175211226946</v>
+        <v>1.383238654061984</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.545131091000101</v>
+        <v>1.538114434439976</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7890995301609962</v>
+        <v>1.151289467744277</v>
       </c>
       <c r="C4">
-        <v>0.09302281390478129</v>
+        <v>0.1836316320679146</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2708622830077374</v>
+        <v>0.3599409007941077</v>
       </c>
       <c r="F4">
-        <v>3.182631357288543</v>
+        <v>2.448631168227649</v>
       </c>
       <c r="G4">
-        <v>0.002539542615738815</v>
+        <v>0.0008373997081170351</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1399211948380028</v>
+        <v>0.09498662983065032</v>
       </c>
       <c r="K4">
-        <v>0.8085969575795957</v>
+        <v>1.257643291055132</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.554173099980325</v>
+        <v>1.560699321407469</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7780616186934708</v>
+        <v>1.105729802971553</v>
       </c>
       <c r="C5">
-        <v>0.091068531802037</v>
+        <v>0.175826575734618</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2676667368863903</v>
+        <v>0.3447039493458348</v>
       </c>
       <c r="F5">
-        <v>3.171792867123202</v>
+        <v>2.38464288614</v>
       </c>
       <c r="G5">
-        <v>0.002540683130291343</v>
+        <v>0.0008392234643227921</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1398013226537103</v>
+        <v>0.09383473364034245</v>
       </c>
       <c r="K5">
-        <v>0.7962136996333413</v>
+        <v>1.20694188657319</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.558038858289763</v>
+        <v>1.570379786736794</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7762366793868125</v>
+        <v>1.098189058818861</v>
       </c>
       <c r="C6">
-        <v>0.09074496623696859</v>
+        <v>0.1745347439680245</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2671389061501372</v>
+        <v>0.3421806183997518</v>
       </c>
       <c r="F6">
-        <v>3.17002056077439</v>
+        <v>2.37408753576949</v>
       </c>
       <c r="G6">
-        <v>0.002540874557390055</v>
+        <v>0.0008395281369961723</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1397824668560474</v>
+        <v>0.09364629925308776</v>
       </c>
       <c r="K6">
-        <v>0.7941656437500626</v>
+        <v>1.198550071421607</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.558691688666443</v>
+        <v>1.572015352022014</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7889501393365776</v>
+        <v>1.150673363493411</v>
       </c>
       <c r="C7">
-        <v>0.09299639456564535</v>
+        <v>0.1835260824220342</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2708189998007882</v>
+        <v>0.3597349459826518</v>
       </c>
       <c r="F7">
-        <v>3.182483346823773</v>
+        <v>2.447763442597392</v>
       </c>
       <c r="G7">
-        <v>0.002539557860171295</v>
+        <v>0.0008374241813392914</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1399195078465283</v>
+        <v>0.09497090226983573</v>
       </c>
       <c r="K7">
-        <v>0.8084294042617444</v>
+        <v>1.256957656533075</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.554224502375668</v>
+        <v>1.560827975161359</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8462026684386217</v>
+        <v>1.386211900913452</v>
       </c>
       <c r="C8">
-        <v>0.1030693109198495</v>
+        <v>0.2238899054781314</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2874646930246527</v>
+        <v>0.4383062938083384</v>
       </c>
       <c r="F8">
-        <v>3.241473400947797</v>
+        <v>2.783867466026095</v>
       </c>
       <c r="G8">
-        <v>0.002534044129823617</v>
+        <v>0.0008283992740691342</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1406771028086027</v>
+        <v>0.1012564596349534</v>
       </c>
       <c r="K8">
-        <v>0.8725644310184748</v>
+        <v>1.519087311472759</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.536102487845156</v>
+        <v>1.515712364186257</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9626462717680795</v>
+        <v>1.866417303069284</v>
       </c>
       <c r="C9">
-        <v>0.1233286924992285</v>
+        <v>0.3063474310466177</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.3215799467233325</v>
+        <v>0.5977264483439626</v>
       </c>
       <c r="F9">
-        <v>3.37161118914176</v>
+        <v>3.491394913912643</v>
       </c>
       <c r="G9">
-        <v>0.002524290002663905</v>
+        <v>0.0008115492148589565</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1427163068947621</v>
+        <v>0.1154647027569169</v>
       </c>
       <c r="K9">
-        <v>1.00266433788974</v>
+        <v>2.053701175952341</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.506309850059296</v>
+        <v>1.444257884859539</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.050786989470794</v>
+        <v>2.234862363989578</v>
       </c>
       <c r="C10">
-        <v>0.1385343593713912</v>
+        <v>0.3698463564102212</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.3475587076929116</v>
+        <v>0.7195845626076363</v>
       </c>
       <c r="F10">
-        <v>3.476152258189529</v>
+        <v>4.050354030872683</v>
       </c>
       <c r="G10">
-        <v>0.002517761549205622</v>
+        <v>0.0007995964271222081</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1445563052047518</v>
+        <v>0.1273730811969855</v>
       </c>
       <c r="K10">
-        <v>1.100947357154951</v>
+        <v>2.464190335620515</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.487948807996432</v>
+        <v>1.403988921953314</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.091457593848475</v>
+        <v>2.407006863256527</v>
       </c>
       <c r="C11">
-        <v>0.1455243310665253</v>
+        <v>0.399598265885146</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.3595794031715656</v>
+        <v>0.7764270358954235</v>
       </c>
       <c r="F11">
-        <v>3.525675502918887</v>
+        <v>4.31558918697263</v>
       </c>
       <c r="G11">
-        <v>0.002514928552698257</v>
+        <v>0.0007942289412106174</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1454685529526074</v>
+        <v>0.1331918747557168</v>
       </c>
       <c r="K11">
-        <v>1.146258215514365</v>
+        <v>2.656089182730653</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.480367512488641</v>
+        <v>1.388798345354161</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.106941846726215</v>
+        <v>2.472953016320446</v>
       </c>
       <c r="C12">
-        <v>0.14818192100293</v>
+        <v>0.4110111145342614</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.3641607409251151</v>
+        <v>0.7981905176330883</v>
       </c>
       <c r="F12">
-        <v>3.544713369162224</v>
+        <v>4.417836622666044</v>
       </c>
       <c r="G12">
-        <v>0.002513875328645407</v>
+        <v>0.0007922043506990218</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1458248879365343</v>
+        <v>0.1354609135486839</v>
       </c>
       <c r="K12">
-        <v>1.163503609565538</v>
+        <v>2.729623230361085</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.477608059067734</v>
+        <v>1.383541359190147</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.10360332837331</v>
+        <v>2.458714755184872</v>
       </c>
       <c r="C13">
-        <v>0.1476090856105259</v>
+        <v>0.4085462610120771</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.3631727588624187</v>
+        <v>0.7934921344231753</v>
       </c>
       <c r="F13">
-        <v>3.540600544964519</v>
+        <v>4.395731357073146</v>
       </c>
       <c r="G13">
-        <v>0.002514101290544868</v>
+        <v>0.0007926400644303799</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1457476595224279</v>
+        <v>0.1349691830362119</v>
       </c>
       <c r="K13">
-        <v>1.159785618291636</v>
+        <v>2.713745710939662</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.478197393062644</v>
+        <v>1.384650727742439</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.092729822737851</v>
+        <v>2.412416431445251</v>
       </c>
       <c r="C14">
-        <v>0.1457427584051914</v>
+        <v>0.4005341372809141</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.3599557230077437</v>
+        <v>0.7782125290151072</v>
       </c>
       <c r="F14">
-        <v>3.527236048586133</v>
+        <v>4.32396346314809</v>
       </c>
       <c r="G14">
-        <v>0.002514841511665747</v>
+        <v>0.0007940622303093046</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1454976502615253</v>
+        <v>0.1333771870674951</v>
       </c>
       <c r="K14">
-        <v>1.147675253840788</v>
+        <v>2.662120754676494</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.480138254619661</v>
+        <v>1.388355641110323</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.086080333815858</v>
+        <v>2.384159558374677</v>
       </c>
       <c r="C15">
-        <v>0.1446009696152544</v>
+        <v>0.3956462498415476</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.3579890252313049</v>
+        <v>0.7688855303534012</v>
       </c>
       <c r="F15">
-        <v>3.519087006505117</v>
+        <v>4.280246481244347</v>
       </c>
       <c r="G15">
-        <v>0.002515297463947581</v>
+        <v>0.0007949343182741542</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1453459322020692</v>
+        <v>0.1324108343388417</v>
       </c>
       <c r="K15">
-        <v>1.140268676313354</v>
+        <v>2.630615688540956</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.481341613793603</v>
+        <v>1.390690965795343</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.04814068181031</v>
+        <v>2.223712420390541</v>
       </c>
       <c r="C16">
-        <v>0.1380790280396411</v>
+        <v>0.367921236497466</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.3467772249262993</v>
+        <v>0.7159010851527086</v>
       </c>
       <c r="F16">
-        <v>3.472955517883719</v>
+        <v>4.033260089360937</v>
       </c>
       <c r="G16">
-        <v>0.002517949436334909</v>
+        <v>0.0007999484381764344</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1444982072779979</v>
+        <v>0.1270015389243255</v>
       </c>
       <c r="K16">
-        <v>1.097998345230565</v>
+        <v>2.451763445583111</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.488459826653411</v>
+        <v>1.405048373359307</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.025013545088996</v>
+        <v>2.126517148395237</v>
       </c>
       <c r="C17">
-        <v>0.1340968004500382</v>
+        <v>0.3511493851949865</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.3399512346209406</v>
+        <v>0.6837817746431085</v>
       </c>
       <c r="F17">
-        <v>3.44516029329327</v>
+        <v>3.884706108968118</v>
       </c>
       <c r="G17">
-        <v>0.00251961130581659</v>
+        <v>0.0008030409259591278</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1439974711731011</v>
+        <v>0.1237912532201122</v>
       </c>
       <c r="K17">
-        <v>1.072221378068946</v>
+        <v>2.343449579597348</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.493024516329797</v>
+        <v>1.41468803094422</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.011765514092986</v>
+        <v>2.071032980479856</v>
       </c>
       <c r="C18">
-        <v>0.1318131742337982</v>
+        <v>0.3415827017105357</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.336044184603125</v>
+        <v>0.665437780001696</v>
       </c>
       <c r="F18">
-        <v>3.429358257948877</v>
+        <v>3.800278091001729</v>
       </c>
       <c r="G18">
-        <v>0.002520580054358943</v>
+        <v>0.0008048263606932259</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1437165371691975</v>
+        <v>0.1219820610129005</v>
       </c>
       <c r="K18">
-        <v>1.057451715817081</v>
+        <v>2.281628287615433</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.495722566096745</v>
+        <v>1.420523892087587</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.007289232749429</v>
+        <v>2.052316086530823</v>
       </c>
       <c r="C19">
-        <v>0.1310411484058136</v>
+        <v>0.3383567098695153</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.3347245955847171</v>
+        <v>0.6592481562039012</v>
       </c>
       <c r="F19">
-        <v>3.424039692078594</v>
+        <v>3.771860140232917</v>
       </c>
       <c r="G19">
-        <v>0.002520910272309624</v>
+        <v>0.000805432091747581</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1436226309757203</v>
+        <v>0.1213756789915053</v>
       </c>
       <c r="K19">
-        <v>1.052460657224714</v>
+        <v>2.260775230311793</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.496648526184288</v>
+        <v>1.422548560876848</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.027469866958711</v>
+        <v>2.136819553709188</v>
       </c>
       <c r="C20">
-        <v>0.1345200056727265</v>
+        <v>0.3529263431857146</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.3406758969312875</v>
+        <v>0.687187210866341</v>
       </c>
       <c r="F20">
-        <v>3.448099979462199</v>
+        <v>3.90041315714609</v>
       </c>
       <c r="G20">
-        <v>0.002519433064038676</v>
+        <v>0.0008027110444614439</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1440500425294502</v>
+        <v>0.1241290816398006</v>
       </c>
       <c r="K20">
-        <v>1.074959520888825</v>
+        <v>2.354929459497328</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.492531083862076</v>
+        <v>1.413631403284484</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.095921373455269</v>
+        <v>2.425993867645275</v>
       </c>
       <c r="C21">
-        <v>0.1462906538651509</v>
+        <v>0.4028833291269223</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.3608998459858412</v>
+        <v>0.7826937381122576</v>
       </c>
       <c r="F21">
-        <v>3.531153791012684</v>
+        <v>4.344992351697471</v>
       </c>
       <c r="G21">
-        <v>0.002514623560392905</v>
+        <v>0.0007936443075641325</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1455707880250472</v>
+        <v>0.1338429474903364</v>
       </c>
       <c r="K21">
-        <v>1.151229990644481</v>
+        <v>2.677259691789686</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.479565148514283</v>
+        <v>1.387253583174413</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.141143453836605</v>
+        <v>2.619467590013414</v>
       </c>
       <c r="C22">
-        <v>0.1540455458425356</v>
+        <v>0.4363989753081796</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.3742885997148733</v>
+        <v>0.8465229295182723</v>
       </c>
       <c r="F22">
-        <v>3.587093253144246</v>
+        <v>4.646222240337522</v>
       </c>
       <c r="G22">
-        <v>0.002511594294185286</v>
+        <v>0.000787763915209402</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.146628171260403</v>
+        <v>0.1405781921568376</v>
       </c>
       <c r="K22">
-        <v>1.201585481545862</v>
+        <v>2.893038028971517</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.471740837877746</v>
+        <v>1.372926859362593</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.116963026609881</v>
+        <v>2.51575839039549</v>
       </c>
       <c r="C23">
-        <v>0.1499008772069317</v>
+        <v>0.4184238231998734</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.3671270362409444</v>
+        <v>0.8123139406120288</v>
       </c>
       <c r="F23">
-        <v>3.557084962903531</v>
+        <v>4.484389167272695</v>
       </c>
       <c r="G23">
-        <v>0.002513200672483053</v>
+        <v>0.0007908990075999878</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1460579935377027</v>
+        <v>0.1369452310915804</v>
       </c>
       <c r="K23">
-        <v>1.174663070533569</v>
+        <v>2.777360083766183</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.475857201825136</v>
+        <v>1.380290212265891</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.026359214155093</v>
+        <v>2.132160614775955</v>
       </c>
       <c r="C24">
-        <v>0.1343286565094388</v>
+        <v>0.3521227463816672</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.3403482232227191</v>
+        <v>0.6856472363465542</v>
       </c>
       <c r="F24">
-        <v>3.446770393605306</v>
+        <v>3.89330897271401</v>
       </c>
       <c r="G24">
-        <v>0.002519513605508228</v>
+        <v>0.0008028601603128377</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1440262533900381</v>
+        <v>0.1239762364765866</v>
       </c>
       <c r="K24">
-        <v>1.073721451267176</v>
+        <v>2.349738013924281</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.492753934985728</v>
+        <v>1.41410819261047</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9306938311340502</v>
+        <v>1.734114217618441</v>
       </c>
       <c r="C25">
-        <v>0.1177925071876018</v>
+        <v>0.2835994596539706</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.3121914986108578</v>
+        <v>0.5538846525152508</v>
       </c>
       <c r="F25">
-        <v>3.334845842189537</v>
+        <v>3.293874569098307</v>
       </c>
       <c r="G25">
-        <v>0.002526816208347819</v>
+        <v>0.0008160255997205814</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1421049412351039</v>
+        <v>0.111388331472952</v>
       </c>
       <c r="K25">
-        <v>0.9669992080443421</v>
+        <v>1.906370299168458</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.513751934095879</v>
+        <v>1.461587106512184</v>
       </c>
       <c r="O25">
         <v>0</v>
